--- a/AfDD_2023_Annex_Table_Tab18.xlsx
+++ b/AfDD_2023_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab18.xlsx
+++ b/AfDD_2023_Annex_Table_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A42269-FACC-4461-8C0D-7B283F6EEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0AE23B-B52C-4A66-8AA6-DC9295D62D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{076C4D55-F9CA-4529-B3EB-EC3CAE060344}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C231841B-4A51-4057-B696-663709DF7D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
@@ -1838,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F83281-3DB8-424B-96EA-AE20F1541F87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24B681D-C932-474D-81F4-2978F1251123}">
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1970,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="20">
-        <v>44.792871152814399</v>
+        <v>45.025733623187897</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="28">
-        <v>44.636045188239301</v>
+        <v>41.891955685351803</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2064,7 +2064,7 @@
         <v>34</v>
       </c>
       <c r="O5" s="28">
-        <v>45.040888825467299</v>
+        <v>45.040888826404696</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2111,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="O6" s="28">
-        <v>45.8725166721403</v>
+        <v>44.345664757404002</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2158,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="28">
-        <v>9.5594264874568697</v>
+        <v>10.3727474306876</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2205,7 +2205,7 @@
         <v>26</v>
       </c>
       <c r="O8" s="28">
-        <v>40.571534823397897</v>
+        <v>40.5940552908055</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2252,7 +2252,7 @@
         <v>18</v>
       </c>
       <c r="O9" s="28">
-        <v>32.470831678476401</v>
+        <v>34.331492876482699</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2299,7 +2299,7 @@
         <v>147</v>
       </c>
       <c r="O10" s="28">
-        <v>31.193814062223499</v>
+        <v>31.193814062404901</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2346,7 +2346,7 @@
         <v>20</v>
       </c>
       <c r="O11" s="28">
-        <v>54.5010008519195</v>
+        <v>52.951540056276201</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2393,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="28">
-        <v>20.003677188074501</v>
+        <v>18.279911392911501</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2440,7 +2440,7 @@
         <v>124</v>
       </c>
       <c r="O13" s="39">
-        <v>34.716158046341697</v>
+        <v>34.5944064075684</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2487,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="28">
-        <v>7.4606338004530102</v>
+        <v>8.1227926531516701</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2534,7 +2534,7 @@
         <v>9</v>
       </c>
       <c r="O15" s="28">
-        <v>18.162348699407499</v>
+        <v>16.4416262007732</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2581,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="O16" s="28">
-        <v>13.231574903385599</v>
+        <v>13.688864979750299</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="20">
-        <v>34.401117134836497</v>
+        <v>34.529957898005001</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2675,7 +2675,7 @@
         <v>8</v>
       </c>
       <c r="O18" s="20">
-        <v>66.2703757270056</v>
+        <v>72.891877155626503</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="O19" s="28">
-        <v>39.527376992370897</v>
+        <v>39.553458604219401</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="20">
-        <v>45.419403332502597</v>
+        <v>44.622731725259897</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2816,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="O21" s="20">
-        <v>39.862226428640398</v>
+        <v>39.862196110500797</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2863,7 +2863,7 @@
         <v>11</v>
       </c>
       <c r="O22" s="28">
-        <v>15.694842956760199</v>
+        <v>15.309847129227901</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2910,7 +2910,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="39">
-        <v>33.032170662026097</v>
+        <v>33.056170556374198</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -2957,7 +2957,7 @@
         <v>9</v>
       </c>
       <c r="O24" s="28">
-        <v>9.6433581382237907</v>
+        <v>11.516798569849399</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3004,7 +3004,7 @@
         <v>13</v>
       </c>
       <c r="O25" s="28">
-        <v>149.939648856069</v>
+        <v>149.939648857761</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="28">
-        <v>38.332803386038499</v>
+        <v>38.753396744285503</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3098,7 +3098,7 @@
         <v>32</v>
       </c>
       <c r="O27" s="28">
-        <v>8.5738254451512805</v>
+        <v>8.5738254450976097</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3145,7 +3145,7 @@
         <v>132</v>
       </c>
       <c r="O28" s="28">
-        <v>10.6995717922083</v>
+        <v>10.7162886540966</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3192,7 +3192,7 @@
         <v>42</v>
       </c>
       <c r="O29" s="28">
-        <v>23.4693926254748</v>
+        <v>23.032116454966602</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3239,7 +3239,7 @@
         <v>112</v>
       </c>
       <c r="O30" s="28">
-        <v>28.635882545604002</v>
+        <v>27.8335084103309</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3286,7 +3286,7 @@
         <v>49</v>
       </c>
       <c r="O31" s="28">
-        <v>19.065982944789599</v>
+        <v>19.064319772189801</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3333,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="28">
-        <v>120.178646778526</v>
+        <v>120.178646783612</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3380,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="O33" s="28">
-        <v>17.178050909806</v>
+        <v>17.178050909260499</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3427,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="28">
-        <v>81.035780749001901</v>
+        <v>71.500734394283</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3474,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="O35" s="28">
-        <v>16.822679203181501</v>
+        <v>17.0172856140736</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3521,7 +3521,7 @@
         <v>59</v>
       </c>
       <c r="O36" s="28">
-        <v>13.3399197022664</v>
+        <v>14.1751950000597</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3568,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="O37" s="28">
-        <v>14.3024181952253</v>
+        <v>14.385308686659201</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3615,7 +3615,7 @@
         <v>138</v>
       </c>
       <c r="O38" s="39">
-        <v>14.830895694770399</v>
+        <v>14.6283437020997</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3662,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="20">
-        <v>25.672662569768001</v>
+        <v>25.605455733878198</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3709,7 +3709,7 @@
         <v>151</v>
       </c>
       <c r="O40" s="28">
-        <v>10.557030768187101</v>
+        <v>10.5531691004687</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3803,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="O42" s="20">
-        <v>33.206979135730698</v>
+        <v>33.2069791354443</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3850,7 +3850,7 @@
         <v>87</v>
       </c>
       <c r="O43" s="28">
-        <v>32.985864624771601</v>
+        <v>32.985864623713397</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3897,7 +3897,7 @@
         <v>144</v>
       </c>
       <c r="O44" s="28">
-        <v>42.212917027849102</v>
+        <v>42.439990494046803</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3944,7 +3944,7 @@
         <v>132</v>
       </c>
       <c r="O45" s="39">
-        <v>18.816212082425501</v>
+        <v>18.783189127890399</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -3991,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="O46" s="28">
-        <v>23.970788358347001</v>
+        <v>23.482995586326499</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="28">
-        <v>31.302274108413499</v>
+        <v>29.4574859455408</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4085,7 +4085,7 @@
         <v>13</v>
       </c>
       <c r="O48" s="20">
-        <v>28.986910634530801</v>
+        <v>28.9751184139811</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4132,7 +4132,7 @@
         <v>13</v>
       </c>
       <c r="O49" s="28">
-        <v>22.586551588184999</v>
+        <v>22.632864580266698</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4179,7 +4179,7 @@
         <v>21</v>
       </c>
       <c r="O50" s="28">
-        <v>8.6612706258221301</v>
+        <v>9.1788319187919996</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4226,7 +4226,7 @@
         <v>13</v>
       </c>
       <c r="O51" s="28">
-        <v>30.146641210697201</v>
+        <v>30.1948244523951</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4273,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="28">
-        <v>63.580054265265602</v>
+        <v>63.545103442808397</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4320,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="28">
-        <v>18.015248912292702</v>
+        <v>19.4231713892963</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4367,7 +4367,7 @@
         <v>5</v>
       </c>
       <c r="O54" s="28">
-        <v>31.960004645592999</v>
+        <v>32.0125450422886</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="28">
-        <v>27.445228821986099</v>
+        <v>27.3971836887204</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4461,7 +4461,7 @@
         <v>4</v>
       </c>
       <c r="O56" s="28">
-        <v>14.050613433411201</v>
+        <v>15.496881969881301</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4508,7 +4508,7 @@
         <v>4</v>
       </c>
       <c r="O57" s="20">
-        <v>11.517781590861601</v>
+        <v>11.499661296247799</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4555,7 +4555,7 @@
         <v>56</v>
       </c>
       <c r="O58" s="28">
-        <v>23.161162427367302</v>
+        <v>23.373588354331201</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4602,7 +4602,7 @@
         <v>12</v>
       </c>
       <c r="O59" s="28">
-        <v>21.6824426840613</v>
+        <v>26.864112802491</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4649,7 +4649,7 @@
         <v>25</v>
       </c>
       <c r="O60" s="28">
-        <v>26.9419895612338</v>
+        <v>22.5931424248264</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4696,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="O61" s="48">
-        <v>17.6965419029058</v>
+        <v>17.668744907026699</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4743,7 +4743,7 @@
         <v>162</v>
       </c>
       <c r="O62" s="57">
-        <v>21.489119045123299</v>
+        <v>21.428809165303299</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4790,7 +4790,7 @@
         <v>389</v>
       </c>
       <c r="O63" s="65">
-        <v>28.814277842218701</v>
+        <v>29.074255902749801</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4837,7 +4837,7 @@
         <v>222</v>
       </c>
       <c r="O64" s="74">
-        <v>26.919654560318001</v>
+        <v>27.112143836084599</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4884,7 +4884,7 @@
         <v>350</v>
       </c>
       <c r="O65" s="65">
-        <v>23.410453990255199</v>
+        <v>24.0965283884358</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4931,7 +4931,7 @@
         <v>391</v>
       </c>
       <c r="O66" s="87">
-        <v>28.443535893161901</v>
+        <v>28.688994384145701</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -4978,7 +4978,7 @@
         <v>180</v>
       </c>
       <c r="O67" s="74">
-        <v>15.8226914207878</v>
+        <v>15.827399720297199</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5025,7 +5025,7 @@
         <v>129</v>
       </c>
       <c r="O68" s="65">
-        <v>17.575823765812299</v>
+        <v>17.5819635585536</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5072,7 +5072,7 @@
         <v>123</v>
       </c>
       <c r="O69" s="65">
-        <v>13.851326265611201</v>
+        <v>13.418753152565801</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5119,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="O70" s="65">
-        <v>36.600813785606398</v>
+        <v>36.685339214373897</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5166,7 +5166,7 @@
         <v>21</v>
       </c>
       <c r="O71" s="65">
-        <v>17.6965419029058</v>
+        <v>17.668744907026699</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5213,7 +5213,7 @@
         <v>99</v>
       </c>
       <c r="O72" s="65">
-        <v>13.805923406794999</v>
+        <v>13.3876320778232</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5260,7 +5260,7 @@
         <v>133</v>
       </c>
       <c r="O73" s="65">
-        <v>32.460052104770398</v>
+        <v>32.443122353982901</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5307,7 +5307,7 @@
         <v>73</v>
       </c>
       <c r="O74" s="65">
-        <v>30.437932494539901</v>
+        <v>30.495426343310001</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
         <v>10</v>
       </c>
       <c r="O75" s="87">
-        <v>43.308849110552899</v>
+        <v>43.522693584562703</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5401,7 +5401,7 @@
         <v>249</v>
       </c>
       <c r="O76" s="74">
-        <v>52.919892499025302</v>
+        <v>52.997166297673402</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5448,7 +5448,7 @@
         <v>155</v>
       </c>
       <c r="O77" s="65">
-        <v>21.5029138307757</v>
+        <v>21.190808658086699</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5495,7 +5495,7 @@
         <v>394</v>
       </c>
       <c r="O78" s="65">
-        <v>50.500418379071803</v>
+        <v>50.405171963548</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5542,7 +5542,7 @@
         <v>370</v>
       </c>
       <c r="O79" s="87">
-        <v>29.915627161081002</v>
+        <v>30.026167846821199</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5589,7 +5589,7 @@
         <v>8</v>
       </c>
       <c r="O80" s="74">
-        <v>20.9108828537717</v>
+        <v>20.986150259167299</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5636,7 +5636,7 @@
         <v>114</v>
       </c>
       <c r="O81" s="65">
-        <v>35.116126893895498</v>
+        <v>37.656844581745602</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5683,7 +5683,7 @@
         <v>209</v>
       </c>
       <c r="O82" s="65">
-        <v>21.7153960047746</v>
+        <v>21.601179840296101</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5730,7 +5730,7 @@
         <v>398</v>
       </c>
       <c r="O83" s="87">
-        <v>28.2466114077585</v>
+        <v>28.295846675813898</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5777,7 +5777,7 @@
         <v>46</v>
       </c>
       <c r="O84" s="74">
-        <v>21.439943336380701</v>
+        <v>21.1779638950382</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5824,7 +5824,7 @@
         <v>68</v>
       </c>
       <c r="O85" s="65">
-        <v>8.2496911782415907</v>
+        <v>12.080169759101199</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5871,7 +5871,7 @@
         <v>143</v>
       </c>
       <c r="O86" s="65">
-        <v>19.238210618353701</v>
+        <v>19.234074729172399</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5918,7 +5918,7 @@
         <v>303</v>
       </c>
       <c r="O87" s="65">
-        <v>23.608491825541702</v>
+        <v>25.213955396743401</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5965,7 +5965,7 @@
         <v>120</v>
       </c>
       <c r="O88" s="65">
-        <v>32.364955203058699</v>
+        <v>32.2537412319464</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6012,7 +6012,7 @@
         <v>360</v>
       </c>
       <c r="O89" s="65">
-        <v>26.526038238909599</v>
+        <v>26.486034597540002</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6059,7 +6059,7 @@
         <v>357</v>
       </c>
       <c r="O90" s="87">
-        <v>32.356046563277701</v>
+        <v>32.383493587139697</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6106,7 +6106,7 @@
         <v>55</v>
       </c>
       <c r="O91" s="65">
-        <v>25.475042676762001</v>
+        <v>25.363513289198099</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6153,7 +6153,7 @@
         <v>94</v>
       </c>
       <c r="O92" s="65">
-        <v>15.514039788078399</v>
+        <v>15.369241775483101</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6200,7 +6200,7 @@
         <v>75</v>
       </c>
       <c r="O93" s="65">
-        <v>32.440655394114302</v>
+        <v>32.089359681950697</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6247,7 +6247,7 @@
         <v>138</v>
       </c>
       <c r="O94" s="65">
-        <v>117.630529191443</v>
+        <v>117.52915593533599</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6294,7 +6294,7 @@
         <v>43</v>
       </c>
       <c r="O95" s="65">
-        <v>21.1714109077956</v>
+        <v>20.347630778781198</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6341,7 +6341,7 @@
         <v>108</v>
       </c>
       <c r="O96" s="65">
-        <v>31.5695553884775</v>
+        <v>31.3023002992424</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6388,7 +6388,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="74">
-        <v>19.936913271102899</v>
+        <v>19.850907550630101</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6435,7 +6435,7 @@
         <v>132</v>
       </c>
       <c r="O98" s="87">
-        <v>14.8341905100767</v>
+        <v>21.334067301334301</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6514,11 +6514,11 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E75E4921-7F1D-41C9-BC33-D87E67BC9CA1}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{908EBDED-1AC6-479F-A14D-7F54A78EB771}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5CFABA0B-F269-4964-BAEA-81C29CA0F947}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EC545E25-D0B9-47A9-8E6F-010FBA9CCBD0}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{94ADA82F-C596-452B-A3B4-12A4509CCC95}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FA8F3399-BF30-4A46-BAD9-3EE0BA2AE50C}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{31A14CED-A447-4576-AA5F-53A968CD60D4}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{B5337D92-C49A-43CA-8040-50E1390A55E3}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D3BF0D2C-3048-4DEF-BFD5-9D313EBB7AFD}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CAF6797C-AE24-45C3-A7B8-6540F394F305}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab18.xlsx
+++ b/AfDD_2023_Annex_Table_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0AE23B-B52C-4A66-8AA6-DC9295D62D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EFBC05-8C1E-436C-B990-7F26DE6727BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C231841B-4A51-4057-B696-663709DF7D63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{561CB968-E9F9-4C35-9013-7E0E11C898EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab18'!$A$2:$O$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab18'!$A$1:$O$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -474,7 +474,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>Swedes, mangolds, fodder roots, hay, lucerne (alfalfa), clover, sainfoin, forage kale, lupines, vetches and similar forage products, whether or not in the form of pellets</t>
@@ -687,7 +687,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -864,7 +864,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
+    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 01/02/2023).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1838,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24B681D-C932-474D-81F4-2978F1251123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EA2710-52D5-442F-B1FB-2E861E2A8C8C}">
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3387,46 +3387,46 @@
       <c r="A34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="15">
         <v>80.782599659790606</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="15">
         <v>15.0640383536462</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="15">
         <v>1.7292361617548899</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="15">
         <v>0.3722511077283</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="17">
         <v>0.35348823868437002</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="18">
         <v>1</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="19">
         <v>2</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="20">
         <v>71.500734394283</v>
       </c>
     </row>
@@ -4468,46 +4468,46 @@
       <c r="A57" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="23">
         <v>72.546424239849301</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="23">
         <v>14.7178739963511</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="23">
         <v>2.1653872360932298</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="23">
         <v>1.3456234733220001</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="25">
         <v>1.1452381166650401</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="26">
         <v>2</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N57" s="27">
         <v>4</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="28">
         <v>11.499661296247799</v>
       </c>
     </row>
@@ -5036,43 +5036,43 @@
         <v>234</v>
       </c>
       <c r="C69" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="76">
+        <v>24.090397487719802</v>
+      </c>
+      <c r="E69" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="76">
-        <v>25.921027310418999</v>
-      </c>
-      <c r="E69" s="77" t="s">
-        <v>41</v>
-      </c>
       <c r="F69" s="76">
-        <v>6.3847402427753002</v>
+        <v>14.619692784347301</v>
       </c>
       <c r="G69" s="77" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H69" s="76">
-        <v>5.1411903330306004</v>
+        <v>11.5801701398626</v>
       </c>
       <c r="I69" s="77" t="s">
         <v>50</v>
       </c>
       <c r="J69" s="76">
-        <v>3.78357519560433</v>
+        <v>4.1696907037539201</v>
       </c>
       <c r="K69" s="77" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="L69" s="62">
-        <v>3.7642738536917499</v>
+        <v>3.5932885287644201</v>
       </c>
       <c r="M69" s="78">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N69" s="79">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O69" s="65">
-        <v>13.418753152565801</v>
+        <v>17.506043086661101</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5415,40 +5415,40 @@
         <v>14</v>
       </c>
       <c r="D77" s="76">
-        <v>8.7548140486859705</v>
+        <v>8.7992257885579495</v>
       </c>
       <c r="E77" s="77" t="s">
         <v>55</v>
       </c>
       <c r="F77" s="76">
-        <v>8.1537757663553894</v>
+        <v>8.1404985602167805</v>
       </c>
       <c r="G77" s="77" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="76">
-        <v>7.9101834907674</v>
+        <v>7.9510615528571602</v>
       </c>
       <c r="I77" s="77" t="s">
         <v>40</v>
       </c>
       <c r="J77" s="76">
-        <v>7.2086375684185899</v>
+        <v>7.2458901978232397</v>
       </c>
       <c r="K77" s="77" t="s">
         <v>24</v>
       </c>
       <c r="L77" s="62">
-        <v>3.93181420286141</v>
+        <v>3.9353181066884799</v>
       </c>
       <c r="M77" s="78">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N77" s="79">
         <v>155</v>
       </c>
       <c r="O77" s="65">
-        <v>21.190808658086699</v>
+        <v>21.242089332629401</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5556,40 +5556,40 @@
         <v>14</v>
       </c>
       <c r="D80" s="90">
-        <v>64.038874929093794</v>
+        <v>60.227803463938798</v>
       </c>
       <c r="E80" s="91" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="90">
-        <v>15.9443440060816</v>
+        <v>16.433241925800001</v>
       </c>
       <c r="G80" s="91" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="90">
-        <v>4.5421003547881504</v>
+        <v>6.1407310490149696</v>
       </c>
       <c r="I80" s="91" t="s">
         <v>58</v>
       </c>
       <c r="J80" s="90">
-        <v>1.7954882284857501</v>
+        <v>2.5369258847114402</v>
       </c>
       <c r="K80" s="91" t="s">
         <v>16</v>
       </c>
       <c r="L80" s="71">
-        <v>1.5162535855386301</v>
+        <v>2.2020450239324698</v>
       </c>
       <c r="M80" s="92">
         <v>2</v>
       </c>
       <c r="N80" s="93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O80" s="74">
-        <v>20.986150259167299</v>
+        <v>33.526005766710099</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5650,40 +5650,40 @@
         <v>24</v>
       </c>
       <c r="D82" s="76">
-        <v>16.728570773123401</v>
+        <v>14.8017170270329</v>
       </c>
       <c r="E82" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="76">
+        <v>11.2828584212676</v>
+      </c>
+      <c r="G82" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="76">
-        <v>5.7125503216959101</v>
-      </c>
-      <c r="G82" s="77" t="s">
+      <c r="H82" s="76">
+        <v>5.04353611978381</v>
+      </c>
+      <c r="I82" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="76">
-        <v>3.70620528335151</v>
-      </c>
-      <c r="I82" s="77" t="s">
-        <v>14</v>
-      </c>
       <c r="J82" s="76">
-        <v>3.1671798601160299</v>
+        <v>3.2721601814228101</v>
       </c>
       <c r="K82" s="77" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L82" s="62">
-        <v>3.0016924839532999</v>
+        <v>2.7549592489316002</v>
       </c>
       <c r="M82" s="78">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N82" s="79">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="O82" s="65">
-        <v>21.601179840296101</v>
+        <v>19.7320523288654</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5703,7 +5703,7 @@
         <v>101</v>
       </c>
       <c r="F83" s="82">
-        <v>3.5473623283430502</v>
+        <v>3.54736232834306</v>
       </c>
       <c r="G83" s="83" t="s">
         <v>17</v>
@@ -5744,40 +5744,40 @@
         <v>24</v>
       </c>
       <c r="D84" s="90">
-        <v>39.2088697491929</v>
+        <v>34.784060841877398</v>
       </c>
       <c r="E84" s="91" t="s">
         <v>58</v>
       </c>
       <c r="F84" s="90">
-        <v>10.3723623998169</v>
+        <v>11.9606620016154</v>
       </c>
       <c r="G84" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84" s="90">
+        <v>7.2994834981581604</v>
+      </c>
+      <c r="I84" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="90">
-        <v>5.2866858528057303</v>
-      </c>
-      <c r="I84" s="91" t="s">
+      <c r="J84" s="90">
+        <v>4.6325924372140799</v>
+      </c>
+      <c r="K84" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J84" s="90">
-        <v>3.7910492265308902</v>
-      </c>
-      <c r="K84" s="91" t="s">
-        <v>202</v>
-      </c>
       <c r="L84" s="71">
-        <v>3.7658575802200902</v>
+        <v>3.2853153801738002</v>
       </c>
       <c r="M84" s="92">
         <v>13</v>
       </c>
       <c r="N84" s="93">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O84" s="74">
-        <v>21.1779638950382</v>
+        <v>22.9083781831132</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5838,40 +5838,40 @@
         <v>14</v>
       </c>
       <c r="D86" s="76">
-        <v>28.6250922249178</v>
+        <v>29.861278244752199</v>
       </c>
       <c r="E86" s="77" t="s">
         <v>15</v>
       </c>
       <c r="F86" s="76">
-        <v>9.37798057030815</v>
+        <v>9.7829621950557808</v>
       </c>
       <c r="G86" s="77" t="s">
         <v>24</v>
       </c>
       <c r="H86" s="76">
-        <v>5.7924216683570897</v>
+        <v>5.7803555572153504</v>
       </c>
       <c r="I86" s="77" t="s">
         <v>17</v>
       </c>
       <c r="J86" s="76">
-        <v>4.3434424594322198</v>
+        <v>4.5298811259116203</v>
       </c>
       <c r="K86" s="77" t="s">
         <v>21</v>
       </c>
       <c r="L86" s="62">
-        <v>2.2935380173226201</v>
+        <v>2.3825716097725098</v>
       </c>
       <c r="M86" s="78">
         <v>39</v>
       </c>
       <c r="N86" s="79">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O86" s="65">
-        <v>19.234074729172399</v>
+        <v>18.7669602699739</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5885,40 +5885,40 @@
         <v>227</v>
       </c>
       <c r="D87" s="76">
-        <v>4.5435903283809802</v>
+        <v>4.5301310423174703</v>
       </c>
       <c r="E87" s="77" t="s">
         <v>17</v>
       </c>
       <c r="F87" s="76">
-        <v>3.79362477390992</v>
+        <v>3.7815528217055001</v>
       </c>
       <c r="G87" s="77" t="s">
         <v>101</v>
       </c>
       <c r="H87" s="76">
-        <v>3.28594847565628</v>
+        <v>3.2759488699094099</v>
       </c>
       <c r="I87" s="77" t="s">
         <v>44</v>
       </c>
       <c r="J87" s="76">
-        <v>2.26719416355383</v>
+        <v>2.2602829397369999</v>
       </c>
       <c r="K87" s="77" t="s">
         <v>98</v>
       </c>
       <c r="L87" s="62">
-        <v>2.03714104132834</v>
+        <v>2.03088083613908</v>
       </c>
       <c r="M87" s="78">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N87" s="79">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O87" s="65">
-        <v>25.213955396743401</v>
+        <v>25.2110602250767</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -5979,40 +5979,40 @@
         <v>14</v>
       </c>
       <c r="D89" s="76">
-        <v>4.9936881678315901</v>
+        <v>5.0772541833198002</v>
       </c>
       <c r="E89" s="77" t="s">
         <v>230</v>
       </c>
       <c r="F89" s="76">
-        <v>4.9500787071319996</v>
+        <v>5.0285210040730597</v>
       </c>
       <c r="G89" s="77" t="s">
         <v>227</v>
       </c>
       <c r="H89" s="76">
-        <v>4.4467177611625797</v>
+        <v>4.5080372478328403</v>
       </c>
       <c r="I89" s="77" t="s">
         <v>101</v>
       </c>
       <c r="J89" s="76">
-        <v>3.9826909773910999</v>
+        <v>4.0465375173223999</v>
       </c>
       <c r="K89" s="77" t="s">
         <v>17</v>
       </c>
       <c r="L89" s="62">
-        <v>3.0692364436875401</v>
+        <v>3.0862565029659201</v>
       </c>
       <c r="M89" s="78">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N89" s="79">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O89" s="65">
-        <v>26.486034597540002</v>
+        <v>26.250108762484999</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6026,40 +6026,40 @@
         <v>174</v>
       </c>
       <c r="D90" s="82">
-        <v>4.8640538748611402</v>
+        <v>4.8754944183225897</v>
       </c>
       <c r="E90" s="83" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="82">
-        <v>4.1444104722641901</v>
+        <v>4.11237542451489</v>
       </c>
       <c r="G90" s="83" t="s">
         <v>17</v>
       </c>
       <c r="H90" s="82">
-        <v>3.8845080286263101</v>
+        <v>3.8709706038326699</v>
       </c>
       <c r="I90" s="83" t="s">
         <v>244</v>
       </c>
       <c r="J90" s="82">
-        <v>3.2026887954515502</v>
+        <v>3.1884531517132602</v>
       </c>
       <c r="K90" s="83" t="s">
         <v>101</v>
       </c>
       <c r="L90" s="84">
-        <v>2.9253126576282602</v>
+        <v>2.9040696388394198</v>
       </c>
       <c r="M90" s="85">
         <v>160</v>
       </c>
       <c r="N90" s="86">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O90" s="87">
-        <v>32.383493587139697</v>
+        <v>32.487236691912202</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6214,40 +6214,40 @@
         <v>101</v>
       </c>
       <c r="D94" s="76">
-        <v>20.112943401417098</v>
+        <v>20.839646717129199</v>
       </c>
       <c r="E94" s="77" t="s">
         <v>17</v>
       </c>
       <c r="F94" s="76">
-        <v>11.048155559571001</v>
+        <v>10.416035359019601</v>
       </c>
       <c r="G94" s="77" t="s">
         <v>24</v>
       </c>
       <c r="H94" s="76">
-        <v>5.8839667589593603</v>
+        <v>6.0453656223716097</v>
       </c>
       <c r="I94" s="77" t="s">
         <v>244</v>
       </c>
       <c r="J94" s="76">
-        <v>2.4593904362257999</v>
+        <v>2.5458232850254698</v>
       </c>
       <c r="K94" s="77" t="s">
         <v>230</v>
       </c>
       <c r="L94" s="62">
-        <v>1.9538692035379699</v>
+        <v>2.0194409004503902</v>
       </c>
       <c r="M94" s="78">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N94" s="79">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O94" s="65">
-        <v>117.52915593533599</v>
+        <v>119.542274839231</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
@@ -6355,31 +6355,31 @@
         <v>14</v>
       </c>
       <c r="D97" s="90">
-        <v>37.952816586674501</v>
+        <v>37.6798120026058</v>
       </c>
       <c r="E97" s="91" t="s">
         <v>24</v>
       </c>
       <c r="F97" s="90">
-        <v>15.7381263644226</v>
+        <v>15.9245021943686</v>
       </c>
       <c r="G97" s="91" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="90">
-        <v>5.7802889198311398</v>
+        <v>5.7391192110223797</v>
       </c>
       <c r="I97" s="91" t="s">
         <v>58</v>
       </c>
       <c r="J97" s="90">
-        <v>5.5222157001000296</v>
+        <v>5.4825955614224204</v>
       </c>
       <c r="K97" s="91" t="s">
         <v>50</v>
       </c>
       <c r="L97" s="71">
-        <v>2.9253505005400702</v>
+        <v>2.9043076855797798</v>
       </c>
       <c r="M97" s="92">
         <v>10</v>
@@ -6388,7 +6388,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="74">
-        <v>19.850907550630101</v>
+        <v>19.900104646614501</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6402,40 +6402,40 @@
         <v>14</v>
       </c>
       <c r="D98" s="82">
-        <v>25.436489371685099</v>
+        <v>24.938880541259699</v>
       </c>
       <c r="E98" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="82">
+        <v>4.3535616981501599</v>
+      </c>
+      <c r="G98" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="82">
-        <v>4.4205666303609101</v>
-      </c>
-      <c r="G98" s="83" t="s">
+      <c r="H98" s="82">
+        <v>4.3096249198562298</v>
+      </c>
+      <c r="I98" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="H98" s="82">
-        <v>3.7252520473663</v>
-      </c>
-      <c r="I98" s="83" t="s">
+      <c r="J98" s="82">
+        <v>3.6319101229669299</v>
+      </c>
+      <c r="K98" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J98" s="82">
-        <v>3.5684247481651998</v>
-      </c>
-      <c r="K98" s="83" t="s">
-        <v>118</v>
-      </c>
       <c r="L98" s="84">
-        <v>3.12021152842925</v>
+        <v>3.4817399999330898</v>
       </c>
       <c r="M98" s="85">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N98" s="86">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O98" s="87">
-        <v>21.334067301334301</v>
+        <v>21.218698603510401</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6514,11 +6514,11 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FA8F3399-BF30-4A46-BAD9-3EE0BA2AE50C}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{31A14CED-A447-4576-AA5F-53A968CD60D4}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{B5337D92-C49A-43CA-8040-50E1390A55E3}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D3BF0D2C-3048-4DEF-BFD5-9D313EBB7AFD}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CAF6797C-AE24-45C3-A7B8-6540F394F305}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FAA73F87-2D16-4717-960A-B524DE60B07B}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DF1DC84A-FD36-4D47-9FDE-BBBED5F34F7B}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{EBD6D6E9-31B0-43BA-8010-E32A07F1697C}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6178209C-1024-4F37-8C27-5415C9273371}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{F874ACF2-008D-41FD-9267-628941BD9021}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab18.xlsx
+++ b/AfDD_2023_Annex_Table_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3EFBC05-8C1E-436C-B990-7F26DE6727BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC2E4C6-022A-42AA-9C09-7BFD171D0E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{561CB968-E9F9-4C35-9013-7E0E11C898EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9FAAD62-AAF4-4837-BEF9-3D8FC4A1241D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1838,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EA2710-52D5-442F-B1FB-2E861E2A8C8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB483EB-02A2-407C-8A4B-FBB12D0ED656}">
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6514,11 +6514,11 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FAA73F87-2D16-4717-960A-B524DE60B07B}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DF1DC84A-FD36-4D47-9FDE-BBBED5F34F7B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{EBD6D6E9-31B0-43BA-8010-E32A07F1697C}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6178209C-1024-4F37-8C27-5415C9273371}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{F874ACF2-008D-41FD-9267-628941BD9021}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{73DE7E90-1CCD-4631-BCA9-F82C338841E6}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{56A8E833-035D-4F45-95E4-9BF979937284}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{B4D8255A-3FA0-434B-8E66-1EC7BA398B7A}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{69DD759F-C48E-48C7-BADA-005CFB19111C}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9C47FF78-8DE4-4B56-ABAA-D2F29C0227EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab18.xlsx
+++ b/AfDD_2023_Annex_Table_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC2E4C6-022A-42AA-9C09-7BFD171D0E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9582802-C3B0-4761-AF03-C6372A0CC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9FAAD62-AAF4-4837-BEF9-3D8FC4A1241D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{07612205-96DA-48C1-AC9B-20E4B77578C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 01/02/2023).</t>
@@ -1838,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB483EB-02A2-407C-8A4B-FBB12D0ED656}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B242ED6-FA9A-4345-AC41-85E0CD5BB8E1}">
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6388,7 +6388,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="74">
-        <v>19.900104646614501</v>
+        <v>18.5436913281488</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6435,7 +6435,7 @@
         <v>131</v>
       </c>
       <c r="O98" s="87">
-        <v>21.218698603510401</v>
+        <v>19.255816473796202</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6514,11 +6514,11 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{73DE7E90-1CCD-4631-BCA9-F82C338841E6}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{56A8E833-035D-4F45-95E4-9BF979937284}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{B4D8255A-3FA0-434B-8E66-1EC7BA398B7A}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{69DD759F-C48E-48C7-BADA-005CFB19111C}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{9C47FF78-8DE4-4B56-ABAA-D2F29C0227EF}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{1BBC13B1-9A5E-42F7-8BFF-CBED30CE5E7F}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D3534C06-6812-419C-A5D6-EF7C07423142}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E78B84EB-3B8D-4783-99CD-72843E53ACB6}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2CAB2145-1B38-4D44-88A5-8B7E75C56CEA}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A5A252A3-B69D-4DC5-BF0F-D782F070A902}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab18.xlsx
+++ b/AfDD_2023_Annex_Table_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9582802-C3B0-4761-AF03-C6372A0CC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0E1B535-2C27-46A0-9FF9-D3B8AAAC5816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{07612205-96DA-48C1-AC9B-20E4B77578C4}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{43344573-F017-4031-B973-436DC08734D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="282">
   <si>
     <t>Table 18: Export diversification</t>
   </si>
@@ -870,16 +870,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B242ED6-FA9A-4345-AC41-85E0CD5BB8E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C0C4D2-793F-4979-BACF-9653A36073C1}">
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6490,37 +6493,40 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{1BBC13B1-9A5E-42F7-8BFF-CBED30CE5E7F}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D3534C06-6812-419C-A5D6-EF7C07423142}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E78B84EB-3B8D-4783-99CD-72843E53ACB6}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2CAB2145-1B38-4D44-88A5-8B7E75C56CEA}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A5A252A3-B69D-4DC5-BF0F-D782F070A902}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4E2D9A0E-12CC-4657-8E68-515E290AE047}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8F5BE043-91D8-4E48-A876-092C6F78230D}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{E9D920CF-001B-4AD5-BE5F-D4D0610B7C9D}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{0D277920-68CF-4299-98A5-4283B6920BFE}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{1094B8CD-4542-48EF-930E-3A9E2D8FC635}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E0B03483-F5DC-4977-9589-9117401B4253}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab18.xlsx
+++ b/AfDD_2023_Annex_Table_Tab18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0E1B535-2C27-46A0-9FF9-D3B8AAAC5816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA46447-A3EB-45CB-BE20-D79D6CA85B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{43344573-F017-4031-B973-436DC08734D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{81A10F53-00F8-4252-BAAE-8DF8922B34CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab18'!$A$2:$O$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab18'!$A$1:$O$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="282">
   <si>
     <t>Table 18: Export diversification</t>
   </si>
@@ -399,6 +399,9 @@
     <t>Machinery for sorting, screening, separating, washing, crushing, grinding, mixing or kneading earth, stone, ores in solid form, shaping, moulding machinery for solid mineral fuels</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>ETH</t>
   </si>
   <si>
@@ -541,9 +544,6 @@
   </si>
   <si>
     <t>Ferrous waste and scrap; remelting scrap ingots of iron or steel</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>MRT</t>
@@ -1841,30 +1841,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C0C4D2-793F-4979-BACF-9653A36073C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ACD70C-C056-4A30-8400-F4168C04E451}">
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" style="100" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="100" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" style="101" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="100" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7265625" style="101" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="100" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" style="101" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="100" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7265625" style="101" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="102" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7265625" style="103" customWidth="1"/>
-    <col min="15" max="15" width="12.7265625" style="102" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="100" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="101" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="101" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" style="101" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" style="101" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.77734375" style="103" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1882,7 +1882,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="O3" s="20">
-        <v>45.025733623187897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44.983369354109797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -2020,10 +2020,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="28">
-        <v>41.891955685351803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41.960570590450502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -2067,10 +2067,10 @@
         <v>34</v>
       </c>
       <c r="O5" s="28">
-        <v>45.040888826404696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45.037318436425998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>31</v>
       </c>
@@ -2114,10 +2114,10 @@
         <v>16</v>
       </c>
       <c r="O6" s="28">
-        <v>44.345664757404002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44.4455922444536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
@@ -2161,10 +2161,10 @@
         <v>12</v>
       </c>
       <c r="O7" s="28">
-        <v>10.3727474306876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.3622362790511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
@@ -2208,10 +2208,10 @@
         <v>26</v>
       </c>
       <c r="O8" s="28">
-        <v>40.5940552908055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39.8111704972711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>47</v>
       </c>
@@ -2255,10 +2255,10 @@
         <v>18</v>
       </c>
       <c r="O9" s="28">
-        <v>34.331492876482699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33.957445076742701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>52</v>
       </c>
@@ -2302,10 +2302,10 @@
         <v>147</v>
       </c>
       <c r="O10" s="28">
-        <v>31.193814062404901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31.111990655453798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>56</v>
       </c>
@@ -2349,10 +2349,10 @@
         <v>20</v>
       </c>
       <c r="O11" s="28">
-        <v>52.951540056276201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>52.950702242066598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>60</v>
       </c>
@@ -2396,10 +2396,10 @@
         <v>10</v>
       </c>
       <c r="O12" s="28">
-        <v>18.279911392911501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.268420102739999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>64</v>
       </c>
@@ -2443,10 +2443,10 @@
         <v>124</v>
       </c>
       <c r="O13" s="39">
-        <v>34.5944064075684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34.502451308764499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
@@ -2490,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="O14" s="28">
-        <v>8.1227926531516701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8.12233191914566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
@@ -2537,10 +2537,10 @@
         <v>9</v>
       </c>
       <c r="O15" s="28">
-        <v>16.4416262007732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16.441806010866902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2584,10 +2584,10 @@
         <v>4</v>
       </c>
       <c r="O16" s="28">
-        <v>13.688864979750299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13.692146062069099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>78</v>
       </c>
@@ -2631,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="O17" s="20">
-        <v>34.529957898005001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34.559806862069998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>83</v>
       </c>
@@ -2678,10 +2678,10 @@
         <v>8</v>
       </c>
       <c r="O18" s="20">
-        <v>72.891877155626503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>66.052201281445903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>86</v>
       </c>
@@ -2725,10 +2725,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="28">
-        <v>39.553458604219401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38.993071731061399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>89</v>
       </c>
@@ -2772,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="20">
-        <v>44.622731725259897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44.624162319167297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>93</v>
       </c>
@@ -2819,10 +2819,10 @@
         <v>4</v>
       </c>
       <c r="O21" s="20">
-        <v>39.862196110500797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>39.888258732818699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
@@ -2866,10 +2866,10 @@
         <v>11</v>
       </c>
       <c r="O22" s="28">
-        <v>15.309847129227901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15.3632638728612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>64</v>
       </c>
@@ -2913,10 +2913,10 @@
         <v>12</v>
       </c>
       <c r="O23" s="39">
-        <v>33.056170556374198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32.666933938057603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>103</v>
       </c>
@@ -2960,10 +2960,10 @@
         <v>9</v>
       </c>
       <c r="O24" s="28">
-        <v>11.516798569849399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11.5195131831656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>110</v>
       </c>
@@ -3007,10 +3007,10 @@
         <v>13</v>
       </c>
       <c r="O25" s="28">
-        <v>149.939648857761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149.33312334600899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>115</v>
       </c>
@@ -3053,16 +3053,16 @@
       <c r="N26" s="27">
         <v>3</v>
       </c>
-      <c r="O26" s="28">
-        <v>38.753396744285503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O26" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>68</v>
@@ -3083,13 +3083,13 @@
         <v>7.6805306351340503</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J27" s="23">
         <v>6.15652892084805</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L27" s="25">
         <v>5.3498978492678804</v>
@@ -3101,15 +3101,15 @@
         <v>32</v>
       </c>
       <c r="O27" s="28">
-        <v>8.5738254450976097</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8.5738621328594995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>41</v>
@@ -3118,7 +3118,7 @@
         <v>16.7591008224008</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="23">
         <v>10.6892527321362</v>
@@ -3136,7 +3136,7 @@
         <v>3.4684658763696401</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L28" s="25">
         <v>2.72175554785415</v>
@@ -3148,15 +3148,15 @@
         <v>132</v>
       </c>
       <c r="O28" s="28">
-        <v>10.7162886540966</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.7623285479165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>109</v>
@@ -3165,13 +3165,13 @@
         <v>19.265999579784701</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="23">
         <v>15.383737540612</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H29" s="23">
         <v>4.5229526918749503</v>
@@ -3183,7 +3183,7 @@
         <v>4.44954783315639</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L29" s="25">
         <v>3.9246312843055602</v>
@@ -3195,18 +3195,18 @@
         <v>42</v>
       </c>
       <c r="O29" s="28">
-        <v>23.032116454966602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23.0317273620702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D30" s="23">
         <v>10.6513294825244</v>
@@ -3224,7 +3224,7 @@
         <v>4.8486545890235204</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J30" s="23">
         <v>3.9600288933905201</v>
@@ -3242,15 +3242,15 @@
         <v>112</v>
       </c>
       <c r="O30" s="28">
-        <v>27.8335084103309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27.838981225178699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>24</v>
@@ -3289,30 +3289,30 @@
         <v>49</v>
       </c>
       <c r="O31" s="28">
-        <v>19.064319772189801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19.088529634091898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32" s="23">
         <v>63.697096352938303</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F32" s="23">
         <v>13.3656795831099</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H32" s="23">
         <v>11.4268540977541</v>
@@ -3324,7 +3324,7 @@
         <v>5.1561098231787801</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L32" s="25">
         <v>0.75101744629212996</v>
@@ -3336,15 +3336,15 @@
         <v>4</v>
       </c>
       <c r="O32" s="28">
-        <v>120.178646783612</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116.66493004945001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>113</v>
@@ -3383,15 +3383,15 @@
         <v>10</v>
       </c>
       <c r="O33" s="28">
-        <v>17.178050909260499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13.3178343668908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>14</v>
@@ -3406,19 +3406,19 @@
         <v>15.0640383536462</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H34" s="15">
         <v>1.7292361617548899</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J34" s="15">
         <v>0.3722511077283</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L34" s="17">
         <v>0.35348823868437002</v>
@@ -3430,15 +3430,15 @@
         <v>2</v>
       </c>
       <c r="O34" s="20">
-        <v>71.500734394283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71.501738670582995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>24</v>
@@ -3447,7 +3447,7 @@
         <v>52.336665003606797</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F35" s="23">
         <v>8.96521440445553</v>
@@ -3477,15 +3477,15 @@
         <v>11</v>
       </c>
       <c r="O35" s="28">
-        <v>17.0172856140736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16.993018195085298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>24</v>
@@ -3506,7 +3506,7 @@
         <v>3.8743425797647202</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J36" s="23">
         <v>3.67880094015546</v>
@@ -3524,15 +3524,15 @@
         <v>59</v>
       </c>
       <c r="O36" s="28">
-        <v>14.1751950000597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>14.175209086724699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>24</v>
@@ -3559,7 +3559,7 @@
         <v>1.6666171768523199</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L37" s="25">
         <v>1.3504449454933001</v>
@@ -3571,15 +3571,15 @@
         <v>20</v>
       </c>
       <c r="O37" s="28">
-        <v>14.385308686659201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>14.4746086054706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>24</v>
@@ -3594,7 +3594,7 @@
         <v>5.54330607035598</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H38" s="34">
         <v>3.5120386738754399</v>
@@ -3606,7 +3606,7 @@
         <v>3.3529215872806901</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L38" s="36">
         <v>2.5953542849604299</v>
@@ -3618,15 +3618,15 @@
         <v>138</v>
       </c>
       <c r="O38" s="39">
-        <v>14.6283437020997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14.441826690928799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>15</v>
@@ -3647,13 +3647,13 @@
         <v>17.6365372496651</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J39" s="15">
         <v>3.4103410458137899</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L39" s="17">
         <v>2.0174896545399901</v>
@@ -3665,15 +3665,15 @@
         <v>4</v>
       </c>
       <c r="O39" s="20">
-        <v>25.605455733878198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25.605436625959499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>17</v>
@@ -3694,7 +3694,7 @@
         <v>7.7772593015204903</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J40" s="23">
         <v>3.79584197019433</v>
@@ -3712,15 +3712,15 @@
         <v>151</v>
       </c>
       <c r="O40" s="28">
-        <v>10.5531691004687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.5531774155445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>14</v>
@@ -3741,7 +3741,7 @@
         <v>1.9184696993796599</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J41" s="15">
         <v>1.08493380629693</v>
@@ -3759,10 +3759,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>169</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>8.4452201841582308</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J42" s="15">
         <v>8.2827895538348901</v>
@@ -3806,10 +3806,10 @@
         <v>6</v>
       </c>
       <c r="O42" s="20">
-        <v>33.2069791354443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33.205487902222501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>172</v>
       </c>
@@ -3853,10 +3853,10 @@
         <v>87</v>
       </c>
       <c r="O43" s="28">
-        <v>32.985864623713397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33.229757648561801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>177</v>
       </c>
@@ -3900,10 +3900,10 @@
         <v>144</v>
       </c>
       <c r="O44" s="28">
-        <v>42.439990494046803</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>42.4403651619307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>64</v>
       </c>
@@ -3947,10 +3947,10 @@
         <v>132</v>
       </c>
       <c r="O45" s="39">
-        <v>18.783189127890399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18.816926072228799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>181</v>
       </c>
@@ -3994,10 +3994,10 @@
         <v>12</v>
       </c>
       <c r="O46" s="28">
-        <v>23.482995586326499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23.4835027649777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>185</v>
       </c>
@@ -4041,10 +4041,10 @@
         <v>2</v>
       </c>
       <c r="O47" s="28">
-        <v>29.4574859455408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29.457614399860699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>187</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>188</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" s="15">
         <v>42.665305536356001</v>
@@ -4070,7 +4070,7 @@
         <v>7.99200075253904</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J48" s="15">
         <v>6.1115522718516297</v>
@@ -4088,10 +4088,10 @@
         <v>13</v>
       </c>
       <c r="O48" s="20">
-        <v>28.9751184139811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29.639481175743299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>192</v>
       </c>
@@ -4135,10 +4135,10 @@
         <v>13</v>
       </c>
       <c r="O49" s="28">
-        <v>22.632864580266698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22.589718820485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>196</v>
       </c>
@@ -4182,10 +4182,10 @@
         <v>21</v>
       </c>
       <c r="O50" s="28">
-        <v>9.1788319187919996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9.1314405670974601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>198</v>
       </c>
@@ -4229,10 +4229,10 @@
         <v>13</v>
       </c>
       <c r="O51" s="28">
-        <v>30.1948244523951</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30.027140660352998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>200</v>
       </c>
@@ -4276,10 +4276,10 @@
         <v>2</v>
       </c>
       <c r="O52" s="28">
-        <v>63.545103442808397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>64.805956810950704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>204</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>11.3822305404628</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H53" s="23">
         <v>3.29045034852426</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="O53" s="28">
-        <v>19.4231713892963</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19.428377144420999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>206</v>
       </c>
@@ -4370,10 +4370,10 @@
         <v>5</v>
       </c>
       <c r="O54" s="28">
-        <v>32.0125450422886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32.0112993234793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>210</v>
       </c>
@@ -4417,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="O55" s="28">
-        <v>27.3971836887204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27.222714232390601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>212</v>
       </c>
@@ -4464,10 +4464,10 @@
         <v>4</v>
       </c>
       <c r="O56" s="28">
-        <v>15.496881969881301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15.4966004375969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>215</v>
       </c>
@@ -4511,10 +4511,10 @@
         <v>4</v>
       </c>
       <c r="O57" s="28">
-        <v>11.499661296247799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11.4996686864061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4540,13 +4540,13 @@
         <v>9.0091370187943998</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J58" s="23">
         <v>5.78581309154937</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L58" s="25">
         <v>5.4293242003041602</v>
@@ -4558,10 +4558,10 @@
         <v>56</v>
       </c>
       <c r="O58" s="28">
-        <v>23.373588354331201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23.420772400342599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>219</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>220</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" s="23">
         <v>24.2060934269036</v>
@@ -4605,10 +4605,10 @@
         <v>12</v>
       </c>
       <c r="O59" s="28">
-        <v>26.864112802491</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.863274727982201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>221</v>
       </c>
@@ -4652,10 +4652,10 @@
         <v>25</v>
       </c>
       <c r="O60" s="28">
-        <v>22.5931424248264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22.8434868611367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>64</v>
       </c>
@@ -4699,10 +4699,10 @@
         <v>21</v>
       </c>
       <c r="O61" s="48">
-        <v>17.668744907026699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17.674116448833999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="49" t="s">
         <v>64</v>
       </c>
@@ -4746,10 +4746,10 @@
         <v>162</v>
       </c>
       <c r="O62" s="57">
-        <v>21.428809165303299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21.380587503797599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="49" t="s">
         <v>64</v>
       </c>
@@ -4793,10 +4793,10 @@
         <v>389</v>
       </c>
       <c r="O63" s="65">
-        <v>29.074255902749801</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29.0241195092248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="66" t="s">
         <v>64</v>
       </c>
@@ -4840,10 +4840,10 @@
         <v>222</v>
       </c>
       <c r="O64" s="74">
-        <v>27.112143836084599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26.8460489152917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="66" t="s">
         <v>64</v>
       </c>
@@ -4887,10 +4887,10 @@
         <v>350</v>
       </c>
       <c r="O65" s="65">
-        <v>24.0965283884358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>24.090908250574699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="66" t="s">
         <v>64</v>
       </c>
@@ -4934,10 +4934,10 @@
         <v>391</v>
       </c>
       <c r="O66" s="87">
-        <v>28.688994384145701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28.639168740902601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="66" t="s">
         <v>64</v>
       </c>
@@ -4981,10 +4981,10 @@
         <v>180</v>
       </c>
       <c r="O67" s="74">
-        <v>15.827399720297199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15.7247606941299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="66" t="s">
         <v>64</v>
       </c>
@@ -5028,10 +5028,10 @@
         <v>129</v>
       </c>
       <c r="O68" s="65">
-        <v>17.5819635585536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17.539831637828499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="66" t="s">
         <v>64</v>
       </c>
@@ -5075,10 +5075,10 @@
         <v>78</v>
       </c>
       <c r="O69" s="65">
-        <v>17.506043086661101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17.4506879069239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="66" t="s">
         <v>64</v>
       </c>
@@ -5122,10 +5122,10 @@
         <v>10</v>
       </c>
       <c r="O70" s="65">
-        <v>36.685339214373897</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>36.434648860728501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="66" t="s">
         <v>64</v>
       </c>
@@ -5169,10 +5169,10 @@
         <v>21</v>
       </c>
       <c r="O71" s="65">
-        <v>17.668744907026699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17.674116448833999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="66" t="s">
         <v>64</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>5.4361515098246</v>
       </c>
       <c r="I72" s="77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J72" s="76">
         <v>4.5841503511230899</v>
@@ -5216,10 +5216,10 @@
         <v>99</v>
       </c>
       <c r="O72" s="65">
-        <v>13.3876320778232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13.1362761632726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="66" t="s">
         <v>64</v>
       </c>
@@ -5263,10 +5263,10 @@
         <v>133</v>
       </c>
       <c r="O73" s="65">
-        <v>32.443122353982901</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32.338526904563103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="66" t="s">
         <v>64</v>
       </c>
@@ -5310,10 +5310,10 @@
         <v>73</v>
       </c>
       <c r="O74" s="65">
-        <v>30.495426343310001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>30.575382782963299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="66" t="s">
         <v>64</v>
       </c>
@@ -5357,10 +5357,10 @@
         <v>10</v>
       </c>
       <c r="O75" s="87">
-        <v>43.522693584562703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43.3975442533836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="66" t="s">
         <v>64</v>
       </c>
@@ -5404,10 +5404,10 @@
         <v>249</v>
       </c>
       <c r="O76" s="74">
-        <v>52.997166297673402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52.985083071879501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="66" t="s">
         <v>64</v>
       </c>
@@ -5451,10 +5451,10 @@
         <v>155</v>
       </c>
       <c r="O77" s="65">
-        <v>21.242089332629401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>21.219838907156699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="66" t="s">
         <v>64</v>
       </c>
@@ -5498,10 +5498,10 @@
         <v>394</v>
       </c>
       <c r="O78" s="65">
-        <v>50.405171963548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50.201959459432601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="66" t="s">
         <v>64</v>
       </c>
@@ -5545,10 +5545,10 @@
         <v>370</v>
       </c>
       <c r="O79" s="87">
-        <v>30.026167846821199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29.930302691805601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="66" t="s">
         <v>64</v>
       </c>
@@ -5592,10 +5592,10 @@
         <v>7</v>
       </c>
       <c r="O80" s="74">
-        <v>33.526005766710099</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33.437073793099799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="66" t="s">
         <v>64</v>
       </c>
@@ -5639,10 +5639,10 @@
         <v>114</v>
       </c>
       <c r="O81" s="65">
-        <v>37.656844581745602</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37.650932556709002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="66" t="s">
         <v>64</v>
       </c>
@@ -5686,10 +5686,10 @@
         <v>192</v>
       </c>
       <c r="O82" s="65">
-        <v>19.7320523288654</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.6853192705649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="66" t="s">
         <v>64</v>
       </c>
@@ -5733,10 +5733,10 @@
         <v>398</v>
       </c>
       <c r="O83" s="87">
-        <v>28.295846675813898</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28.2433343612032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="66" t="s">
         <v>64</v>
       </c>
@@ -5780,10 +5780,10 @@
         <v>50</v>
       </c>
       <c r="O84" s="74">
-        <v>22.9083781831132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22.672854361169701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="66" t="s">
         <v>64</v>
       </c>
@@ -5827,10 +5827,10 @@
         <v>68</v>
       </c>
       <c r="O85" s="65">
-        <v>12.080169759101199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.6337358712987</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="66" t="s">
         <v>64</v>
       </c>
@@ -5874,10 +5874,10 @@
         <v>142</v>
       </c>
       <c r="O86" s="65">
-        <v>18.7669602699739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18.764616357292901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="66" t="s">
         <v>64</v>
       </c>
@@ -5921,10 +5921,10 @@
         <v>304</v>
       </c>
       <c r="O87" s="65">
-        <v>25.2110602250767</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25.209937138664401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="66" t="s">
         <v>64</v>
       </c>
@@ -5968,10 +5968,10 @@
         <v>120</v>
       </c>
       <c r="O88" s="65">
-        <v>32.2537412319464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32.185209258026298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="66" t="s">
         <v>64</v>
       </c>
@@ -6015,10 +6015,10 @@
         <v>359</v>
       </c>
       <c r="O89" s="65">
-        <v>26.250108762484999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.197198144810798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="66" t="s">
         <v>64</v>
       </c>
@@ -6062,10 +6062,10 @@
         <v>358</v>
       </c>
       <c r="O90" s="87">
-        <v>32.487236691912202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32.422092984809197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="66" t="s">
         <v>64</v>
       </c>
@@ -6109,10 +6109,10 @@
         <v>55</v>
       </c>
       <c r="O91" s="65">
-        <v>25.363513289198099</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25.195366261229101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="66" t="s">
         <v>64</v>
       </c>
@@ -6120,13 +6120,13 @@
         <v>264</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D92" s="76">
         <v>8.0796081599457796</v>
       </c>
       <c r="E92" s="77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F92" s="76">
         <v>7.2365416470499602</v>
@@ -6156,10 +6156,10 @@
         <v>94</v>
       </c>
       <c r="O92" s="65">
-        <v>15.369241775483101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15.3101750673393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="66" t="s">
         <v>64</v>
       </c>
@@ -6167,19 +6167,19 @@
         <v>265</v>
       </c>
       <c r="C93" s="75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D93" s="76">
         <v>29.077425864333101</v>
       </c>
       <c r="E93" s="77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F93" s="76">
         <v>11.2247967810793</v>
       </c>
       <c r="G93" s="77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H93" s="76">
         <v>7.4169849363563403</v>
@@ -6203,10 +6203,10 @@
         <v>75</v>
       </c>
       <c r="O93" s="65">
-        <v>32.089359681950697</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32.281796600955701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="66" t="s">
         <v>64</v>
       </c>
@@ -6250,10 +6250,10 @@
         <v>133</v>
       </c>
       <c r="O94" s="65">
-        <v>119.542274839231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>119.611789619783</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="66" t="s">
         <v>64</v>
       </c>
@@ -6297,10 +6297,10 @@
         <v>43</v>
       </c>
       <c r="O95" s="65">
-        <v>20.347630778781198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20.3560475644985</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="66" t="s">
         <v>64</v>
       </c>
@@ -6344,10 +6344,10 @@
         <v>108</v>
       </c>
       <c r="O96" s="65">
-        <v>31.3023002992424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31.229914599945701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="66" t="s">
         <v>64</v>
       </c>
@@ -6391,10 +6391,10 @@
         <v>47</v>
       </c>
       <c r="O97" s="74">
-        <v>18.5436913281488</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.551904407748001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="66" t="s">
         <v>64</v>
       </c>
@@ -6414,13 +6414,13 @@
         <v>4.3535616981501599</v>
       </c>
       <c r="G98" s="83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H98" s="82">
         <v>4.3096249198562298</v>
       </c>
       <c r="I98" s="83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J98" s="82">
         <v>3.6319101229669299</v>
@@ -6438,10 +6438,10 @@
         <v>131</v>
       </c>
       <c r="O98" s="87">
-        <v>19.255816473796202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+        <v>19.257656382611401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="94"/>
       <c r="B99" s="95"/>
       <c r="C99" s="96"/>
@@ -6458,60 +6458,60 @@
       <c r="N99" s="99"/>
       <c r="O99" s="98"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="104" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="104"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>278</v>
       </c>
@@ -6519,12 +6519,12 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4E2D9A0E-12CC-4657-8E68-515E290AE047}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8F5BE043-91D8-4E48-A876-092C6F78230D}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{E9D920CF-001B-4AD5-BE5F-D4D0610B7C9D}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{0D277920-68CF-4299-98A5-4283B6920BFE}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{1094B8CD-4542-48EF-930E-3A9E2D8FC635}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E0B03483-F5DC-4977-9589-9117401B4253}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{45C6AE79-D4C3-404F-A514-17F29FF9EBD8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{097F0B11-00CA-44B3-A1E8-994A080A5D4D}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{5FD22B45-B9B5-49BF-B48A-B33DCFAAECC6}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{1E57119C-6E9E-4A82-AAC8-E8FED9B91788}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{11441D4E-C0A3-48FA-9DA0-054CE81B67D7}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3EB214AF-936C-45C6-B36B-A0A23BD46D26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
